--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.649954</v>
+        <v>2.223931333333333</v>
       </c>
       <c r="H2">
-        <v>7.949862</v>
+        <v>6.671794</v>
       </c>
       <c r="I2">
-        <v>0.8061096261198654</v>
+        <v>0.53738445011719</v>
       </c>
       <c r="J2">
-        <v>0.8061096261198653</v>
+        <v>0.53738445011719</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.370432999999999</v>
+        <v>6.055317333333334</v>
       </c>
       <c r="N2">
-        <v>19.111299</v>
+        <v>18.165952</v>
       </c>
       <c r="O2">
-        <v>0.1644792697568605</v>
+        <v>0.1792089823259681</v>
       </c>
       <c r="P2">
-        <v>0.1644792697568605</v>
+        <v>0.1792089823259681</v>
       </c>
       <c r="Q2">
-        <v>16.881354410082</v>
+        <v>13.46660995087645</v>
       </c>
       <c r="R2">
-        <v>151.932189690738</v>
+        <v>121.199489557888</v>
       </c>
       <c r="S2">
-        <v>0.1325883226481713</v>
+        <v>0.0963041204233016</v>
       </c>
       <c r="T2">
-        <v>0.1325883226481713</v>
+        <v>0.09630412042330158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.649954</v>
+        <v>2.223931333333333</v>
       </c>
       <c r="H3">
-        <v>7.949862</v>
+        <v>6.671794</v>
       </c>
       <c r="I3">
-        <v>0.8061096261198654</v>
+        <v>0.53738445011719</v>
       </c>
       <c r="J3">
-        <v>0.8061096261198653</v>
+        <v>0.53738445011719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.248383</v>
       </c>
       <c r="O3">
-        <v>0.07098879110807187</v>
+        <v>0.08137114549597046</v>
       </c>
       <c r="P3">
-        <v>0.07098879110807187</v>
+        <v>0.08137114549597046</v>
       </c>
       <c r="Q3">
-        <v>7.285945174794</v>
+        <v>6.114612467678</v>
       </c>
       <c r="R3">
-        <v>65.57350657314601</v>
+        <v>55.031512209102</v>
       </c>
       <c r="S3">
-        <v>0.05722474785882904</v>
+        <v>0.04372758827775795</v>
       </c>
       <c r="T3">
-        <v>0.05722474785882903</v>
+        <v>0.04372758827775795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.649954</v>
+        <v>2.223931333333333</v>
       </c>
       <c r="H4">
-        <v>7.949862</v>
+        <v>6.671794</v>
       </c>
       <c r="I4">
-        <v>0.8061096261198654</v>
+        <v>0.53738445011719</v>
       </c>
       <c r="J4">
-        <v>0.8061096261198653</v>
+        <v>0.53738445011719</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.95628566666667</v>
+        <v>14.27079466666667</v>
       </c>
       <c r="N4">
-        <v>44.86885700000001</v>
+        <v>42.812384</v>
       </c>
       <c r="O4">
-        <v>0.3861588285644529</v>
+        <v>0.4223485654695421</v>
       </c>
       <c r="P4">
-        <v>0.386158828564453</v>
+        <v>0.4223485654695421</v>
       </c>
       <c r="Q4">
-        <v>39.633469027526</v>
+        <v>31.73726741076622</v>
       </c>
       <c r="R4">
-        <v>356.701221247734</v>
+        <v>285.635406696896</v>
       </c>
       <c r="S4">
-        <v>0.3112863489169763</v>
+        <v>0.2269635516126339</v>
       </c>
       <c r="T4">
-        <v>0.3112863489169763</v>
+        <v>0.2269635516126339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.649954</v>
+        <v>2.223931333333333</v>
       </c>
       <c r="H5">
-        <v>7.949862</v>
+        <v>6.671794</v>
       </c>
       <c r="I5">
-        <v>0.8061096261198654</v>
+        <v>0.53738445011719</v>
       </c>
       <c r="J5">
-        <v>0.8061096261198653</v>
+        <v>0.53738445011719</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5852913333333333</v>
+        <v>0.6681003333333333</v>
       </c>
       <c r="N5">
-        <v>1.755874</v>
+        <v>2.004301</v>
       </c>
       <c r="O5">
-        <v>0.01511173433606254</v>
+        <v>0.01977263522907691</v>
       </c>
       <c r="P5">
-        <v>0.01511173433606254</v>
+        <v>0.01977263522907691</v>
       </c>
       <c r="Q5">
-        <v>1.550995109932</v>
+        <v>1.485809265110444</v>
       </c>
       <c r="R5">
-        <v>13.958955989388</v>
+        <v>13.372283385994</v>
       </c>
       <c r="S5">
-        <v>0.01218171451566611</v>
+        <v>0.01062550670994528</v>
       </c>
       <c r="T5">
-        <v>0.01218171451566611</v>
+        <v>0.01062550670994527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.649954</v>
+        <v>2.223931333333333</v>
       </c>
       <c r="H6">
-        <v>7.949862</v>
+        <v>6.671794</v>
       </c>
       <c r="I6">
-        <v>0.8061096261198654</v>
+        <v>0.53738445011719</v>
       </c>
       <c r="J6">
-        <v>0.8061096261198653</v>
+        <v>0.53738445011719</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.06944633333333</v>
+        <v>10.04546633333333</v>
       </c>
       <c r="N6">
-        <v>42.208339</v>
+        <v>30.136399</v>
       </c>
       <c r="O6">
-        <v>0.363261376234552</v>
+        <v>0.2972986714794425</v>
       </c>
       <c r="P6">
-        <v>0.363261376234552</v>
+        <v>0.2972986714794425</v>
       </c>
       <c r="Q6">
-        <v>37.283385588802</v>
+        <v>22.34042733664511</v>
       </c>
       <c r="R6">
-        <v>335.550470299218</v>
+        <v>201.063846029806</v>
       </c>
       <c r="S6">
-        <v>0.2928284921802224</v>
+        <v>0.1597636830935514</v>
       </c>
       <c r="T6">
-        <v>0.2928284921802224</v>
+        <v>0.1597636830935514</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.227162</v>
       </c>
       <c r="I7">
-        <v>0.1244332418611174</v>
+        <v>0.09884264660670146</v>
       </c>
       <c r="J7">
-        <v>0.1244332418611173</v>
+        <v>0.09884264660670145</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.370432999999999</v>
+        <v>6.055317333333334</v>
       </c>
       <c r="N7">
-        <v>19.111299</v>
+        <v>18.165952</v>
       </c>
       <c r="O7">
-        <v>0.1644792697568605</v>
+        <v>0.1792089823259681</v>
       </c>
       <c r="P7">
-        <v>0.1644792697568605</v>
+        <v>0.1792089823259681</v>
       </c>
       <c r="Q7">
-        <v>2.605851100382</v>
+        <v>2.476951776469333</v>
       </c>
       <c r="R7">
-        <v>23.452659903438</v>
+        <v>22.292565988224</v>
       </c>
       <c r="S7">
-        <v>0.02046668875479539</v>
+        <v>0.01771349010879227</v>
       </c>
       <c r="T7">
-        <v>0.02046668875479539</v>
+        <v>0.01771349010879227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.227162</v>
       </c>
       <c r="I8">
-        <v>0.1244332418611174</v>
+        <v>0.09884264660670146</v>
       </c>
       <c r="J8">
-        <v>0.1244332418611173</v>
+        <v>0.09884264660670145</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.248383</v>
       </c>
       <c r="O8">
-        <v>0.07098879110807187</v>
+        <v>0.08137114549597046</v>
       </c>
       <c r="P8">
-        <v>0.07098879110807187</v>
+        <v>0.08137114549597046</v>
       </c>
       <c r="Q8">
         <v>1.124678019894</v>
@@ -948,10 +948,10 @@
         <v>10.122102179046</v>
       </c>
       <c r="S8">
-        <v>0.008833365413379046</v>
+        <v>0.008042939378240696</v>
       </c>
       <c r="T8">
-        <v>0.008833365413379042</v>
+        <v>0.008042939378240695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.227162</v>
       </c>
       <c r="I9">
-        <v>0.1244332418611174</v>
+        <v>0.09884264660670146</v>
       </c>
       <c r="J9">
-        <v>0.1244332418611173</v>
+        <v>0.09884264660670145</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.95628566666667</v>
+        <v>14.27079466666667</v>
       </c>
       <c r="N9">
-        <v>44.86885700000001</v>
+        <v>42.812384</v>
       </c>
       <c r="O9">
-        <v>0.3861588285644529</v>
+        <v>0.4223485654695421</v>
       </c>
       <c r="P9">
-        <v>0.386158828564453</v>
+        <v>0.4223485654695421</v>
       </c>
       <c r="Q9">
-        <v>6.117928477092667</v>
+        <v>5.837525641578667</v>
       </c>
       <c r="R9">
-        <v>55.061356293834</v>
+        <v>52.53773077420799</v>
       </c>
       <c r="S9">
-        <v>0.04805099491156633</v>
+        <v>0.04174605000155326</v>
       </c>
       <c r="T9">
-        <v>0.04805099491156633</v>
+        <v>0.04174605000155326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.227162</v>
       </c>
       <c r="I10">
-        <v>0.1244332418611174</v>
+        <v>0.09884264660670146</v>
       </c>
       <c r="J10">
-        <v>0.1244332418611173</v>
+        <v>0.09884264660670145</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5852913333333333</v>
+        <v>0.6681003333333333</v>
       </c>
       <c r="N10">
-        <v>1.755874</v>
+        <v>2.004301</v>
       </c>
       <c r="O10">
-        <v>0.01511173433606254</v>
+        <v>0.01977263522907691</v>
       </c>
       <c r="P10">
-        <v>0.01511173433606254</v>
+        <v>0.01977263522907691</v>
       </c>
       <c r="Q10">
-        <v>0.2394157610653333</v>
+        <v>0.2732891137513333</v>
       </c>
       <c r="R10">
-        <v>2.154741849588</v>
+        <v>2.459602023762</v>
       </c>
       <c r="S10">
-        <v>0.001880402093580222</v>
+        <v>0.001954379596430865</v>
       </c>
       <c r="T10">
-        <v>0.001880402093580222</v>
+        <v>0.001954379596430864</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.227162</v>
       </c>
       <c r="I11">
-        <v>0.1244332418611174</v>
+        <v>0.09884264660670146</v>
       </c>
       <c r="J11">
-        <v>0.1244332418611173</v>
+        <v>0.09884264660670145</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.06944633333333</v>
+        <v>10.04546633333333</v>
       </c>
       <c r="N11">
-        <v>42.208339</v>
+        <v>30.136399</v>
       </c>
       <c r="O11">
-        <v>0.363261376234552</v>
+        <v>0.2972986714794425</v>
       </c>
       <c r="P11">
-        <v>0.363261376234552</v>
+        <v>0.2972986714794425</v>
       </c>
       <c r="Q11">
-        <v>5.755163300435333</v>
+        <v>4.109138185515333</v>
       </c>
       <c r="R11">
-        <v>51.796469703918</v>
+        <v>36.982243669638</v>
       </c>
       <c r="S11">
-        <v>0.04520179068779637</v>
+        <v>0.02938578752168437</v>
       </c>
       <c r="T11">
-        <v>0.04520179068779635</v>
+        <v>0.02938578752168437</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.152407</v>
+        <v>0.3427953333333333</v>
       </c>
       <c r="H12">
-        <v>0.457221</v>
+        <v>1.028386</v>
       </c>
       <c r="I12">
-        <v>0.04636184242747245</v>
+        <v>0.08283209060684676</v>
       </c>
       <c r="J12">
-        <v>0.04636184242747245</v>
+        <v>0.08283209060684676</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.370432999999999</v>
+        <v>6.055317333333334</v>
       </c>
       <c r="N12">
-        <v>19.111299</v>
+        <v>18.165952</v>
       </c>
       <c r="O12">
-        <v>0.1644792697568605</v>
+        <v>0.1792089823259681</v>
       </c>
       <c r="P12">
-        <v>0.1644792697568605</v>
+        <v>0.1792089823259681</v>
       </c>
       <c r="Q12">
-        <v>0.9708985822309998</v>
+        <v>2.075734523719111</v>
       </c>
       <c r="R12">
-        <v>8.738087240078999</v>
+        <v>18.681610713472</v>
       </c>
       <c r="S12">
-        <v>0.007625561987053302</v>
+        <v>0.01484425466158539</v>
       </c>
       <c r="T12">
-        <v>0.007625561987053302</v>
+        <v>0.01484425466158539</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.152407</v>
+        <v>0.3427953333333333</v>
       </c>
       <c r="H13">
-        <v>0.457221</v>
+        <v>1.028386</v>
       </c>
       <c r="I13">
-        <v>0.04636184242747245</v>
+        <v>0.08283209060684676</v>
       </c>
       <c r="J13">
-        <v>0.04636184242747245</v>
+        <v>0.08283209060684676</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.248383</v>
       </c>
       <c r="O13">
-        <v>0.07098879110807187</v>
+        <v>0.08137114549597046</v>
       </c>
       <c r="P13">
-        <v>0.07098879110807187</v>
+        <v>0.08137114549597046</v>
       </c>
       <c r="Q13">
-        <v>0.419037102627</v>
+        <v>0.942502399982</v>
       </c>
       <c r="R13">
-        <v>3.771333923643</v>
+        <v>8.482521599838</v>
       </c>
       <c r="S13">
-        <v>0.003291171147469185</v>
+        <v>0.006740142096505137</v>
       </c>
       <c r="T13">
-        <v>0.003291171147469185</v>
+        <v>0.006740142096505137</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.152407</v>
+        <v>0.3427953333333333</v>
       </c>
       <c r="H14">
-        <v>0.457221</v>
+        <v>1.028386</v>
       </c>
       <c r="I14">
-        <v>0.04636184242747245</v>
+        <v>0.08283209060684676</v>
       </c>
       <c r="J14">
-        <v>0.04636184242747245</v>
+        <v>0.08283209060684676</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.95628566666667</v>
+        <v>14.27079466666667</v>
       </c>
       <c r="N14">
-        <v>44.86885700000001</v>
+        <v>42.812384</v>
       </c>
       <c r="O14">
-        <v>0.3861588285644529</v>
+        <v>0.4223485654695421</v>
       </c>
       <c r="P14">
-        <v>0.386158828564453</v>
+        <v>0.4223485654695421</v>
       </c>
       <c r="Q14">
-        <v>2.279442629599667</v>
+        <v>4.891961814691556</v>
       </c>
       <c r="R14">
-        <v>20.514983666397</v>
+        <v>44.02765633222401</v>
       </c>
       <c r="S14">
-        <v>0.01790303476188251</v>
+        <v>0.03498401464264486</v>
       </c>
       <c r="T14">
-        <v>0.01790303476188252</v>
+        <v>0.03498401464264486</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.152407</v>
+        <v>0.3427953333333333</v>
       </c>
       <c r="H15">
-        <v>0.457221</v>
+        <v>1.028386</v>
       </c>
       <c r="I15">
-        <v>0.04636184242747245</v>
+        <v>0.08283209060684676</v>
       </c>
       <c r="J15">
-        <v>0.04636184242747245</v>
+        <v>0.08283209060684676</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5852913333333333</v>
+        <v>0.6681003333333333</v>
       </c>
       <c r="N15">
-        <v>1.755874</v>
+        <v>2.004301</v>
       </c>
       <c r="O15">
-        <v>0.01511173433606254</v>
+        <v>0.01977263522907691</v>
       </c>
       <c r="P15">
-        <v>0.01511173433606254</v>
+        <v>0.01977263522907691</v>
       </c>
       <c r="Q15">
-        <v>0.08920249623933332</v>
+        <v>0.2290216764651111</v>
       </c>
       <c r="R15">
-        <v>0.802822466154</v>
+        <v>2.061195088186</v>
       </c>
       <c r="S15">
-        <v>0.0007006078460943566</v>
+        <v>0.001637808712831029</v>
       </c>
       <c r="T15">
-        <v>0.0007006078460943566</v>
+        <v>0.001637808712831029</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.152407</v>
+        <v>0.3427953333333333</v>
       </c>
       <c r="H16">
-        <v>0.457221</v>
+        <v>1.028386</v>
       </c>
       <c r="I16">
-        <v>0.04636184242747245</v>
+        <v>0.08283209060684676</v>
       </c>
       <c r="J16">
-        <v>0.04636184242747245</v>
+        <v>0.08283209060684676</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.06944633333333</v>
+        <v>10.04546633333333</v>
       </c>
       <c r="N16">
-        <v>42.208339</v>
+        <v>30.136399</v>
       </c>
       <c r="O16">
-        <v>0.363261376234552</v>
+        <v>0.2972986714794425</v>
       </c>
       <c r="P16">
-        <v>0.363261376234552</v>
+        <v>0.2972986714794425</v>
       </c>
       <c r="Q16">
-        <v>2.144282107324333</v>
+        <v>3.443538980223777</v>
       </c>
       <c r="R16">
-        <v>19.298538965919</v>
+        <v>30.991850822014</v>
       </c>
       <c r="S16">
-        <v>0.01684146668497308</v>
+        <v>0.02462587049328035</v>
       </c>
       <c r="T16">
-        <v>0.01684146668497308</v>
+        <v>0.02462587049328035</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05153333333333334</v>
+        <v>0.08696999999999999</v>
       </c>
       <c r="H17">
-        <v>0.1546</v>
+        <v>0.26091</v>
       </c>
       <c r="I17">
-        <v>0.015676315915689</v>
+        <v>0.02101518375418606</v>
       </c>
       <c r="J17">
-        <v>0.015676315915689</v>
+        <v>0.02101518375418606</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.370432999999999</v>
+        <v>6.055317333333334</v>
       </c>
       <c r="N17">
-        <v>19.111299</v>
+        <v>18.165952</v>
       </c>
       <c r="O17">
-        <v>0.1644792697568605</v>
+        <v>0.1792089823259681</v>
       </c>
       <c r="P17">
-        <v>0.1644792697568605</v>
+        <v>0.1792089823259681</v>
       </c>
       <c r="Q17">
-        <v>0.3282896472666667</v>
+        <v>0.52663094848</v>
       </c>
       <c r="R17">
-        <v>2.9546068254</v>
+        <v>4.73967853632</v>
       </c>
       <c r="S17">
-        <v>0.002578428994290378</v>
+        <v>0.003766109693980902</v>
       </c>
       <c r="T17">
-        <v>0.002578428994290377</v>
+        <v>0.003766109693980901</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.05153333333333334</v>
+        <v>0.08696999999999999</v>
       </c>
       <c r="H18">
-        <v>0.1546</v>
+        <v>0.26091</v>
       </c>
       <c r="I18">
-        <v>0.015676315915689</v>
+        <v>0.02101518375418606</v>
       </c>
       <c r="J18">
-        <v>0.015676315915689</v>
+        <v>0.02101518375418606</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.248383</v>
       </c>
       <c r="O18">
-        <v>0.07098879110807187</v>
+        <v>0.08137114549597046</v>
       </c>
       <c r="P18">
-        <v>0.07098879110807187</v>
+        <v>0.08137114549597046</v>
       </c>
       <c r="Q18">
-        <v>0.1416888902</v>
+        <v>0.23912062317</v>
       </c>
       <c r="R18">
-        <v>1.2752000118</v>
+        <v>2.15208560853</v>
       </c>
       <c r="S18">
-        <v>0.001112842715882989</v>
+        <v>0.001710029574886429</v>
       </c>
       <c r="T18">
-        <v>0.001112842715882989</v>
+        <v>0.001710029574886429</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.05153333333333334</v>
+        <v>0.08696999999999999</v>
       </c>
       <c r="H19">
-        <v>0.1546</v>
+        <v>0.26091</v>
       </c>
       <c r="I19">
-        <v>0.015676315915689</v>
+        <v>0.02101518375418606</v>
       </c>
       <c r="J19">
-        <v>0.015676315915689</v>
+        <v>0.02101518375418606</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.95628566666667</v>
+        <v>14.27079466666667</v>
       </c>
       <c r="N19">
-        <v>44.86885700000001</v>
+        <v>42.812384</v>
       </c>
       <c r="O19">
-        <v>0.3861588285644529</v>
+        <v>0.4223485654695421</v>
       </c>
       <c r="P19">
-        <v>0.386158828564453</v>
+        <v>0.4223485654695421</v>
       </c>
       <c r="Q19">
-        <v>0.770747254688889</v>
+        <v>1.24113101216</v>
       </c>
       <c r="R19">
-        <v>6.936725292200001</v>
+        <v>11.17017910944</v>
       </c>
       <c r="S19">
-        <v>0.006053547790208755</v>
+        <v>0.008875732711659309</v>
       </c>
       <c r="T19">
-        <v>0.006053547790208755</v>
+        <v>0.008875732711659309</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.05153333333333334</v>
+        <v>0.08696999999999999</v>
       </c>
       <c r="H20">
-        <v>0.1546</v>
+        <v>0.26091</v>
       </c>
       <c r="I20">
-        <v>0.015676315915689</v>
+        <v>0.02101518375418606</v>
       </c>
       <c r="J20">
-        <v>0.015676315915689</v>
+        <v>0.02101518375418606</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5852913333333333</v>
+        <v>0.6681003333333333</v>
       </c>
       <c r="N20">
-        <v>1.755874</v>
+        <v>2.004301</v>
       </c>
       <c r="O20">
-        <v>0.01511173433606254</v>
+        <v>0.01977263522907691</v>
       </c>
       <c r="P20">
-        <v>0.01511173433606254</v>
+        <v>0.01977263522907691</v>
       </c>
       <c r="Q20">
-        <v>0.03016201337777778</v>
+        <v>0.05810468598999999</v>
       </c>
       <c r="R20">
-        <v>0.2714581204</v>
+        <v>0.52294217391</v>
       </c>
       <c r="S20">
-        <v>0.0002368963214860812</v>
+        <v>0.0004155255626435441</v>
       </c>
       <c r="T20">
-        <v>0.0002368963214860812</v>
+        <v>0.000415525562643544</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.05153333333333334</v>
+        <v>0.08696999999999999</v>
       </c>
       <c r="H21">
-        <v>0.1546</v>
+        <v>0.26091</v>
       </c>
       <c r="I21">
-        <v>0.015676315915689</v>
+        <v>0.02101518375418606</v>
       </c>
       <c r="J21">
-        <v>0.015676315915689</v>
+        <v>0.02101518375418606</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.06944633333333</v>
+        <v>10.04546633333333</v>
       </c>
       <c r="N21">
-        <v>42.208339</v>
+        <v>30.136399</v>
       </c>
       <c r="O21">
-        <v>0.363261376234552</v>
+        <v>0.2972986714794425</v>
       </c>
       <c r="P21">
-        <v>0.363261376234552</v>
+        <v>0.2972986714794425</v>
       </c>
       <c r="Q21">
-        <v>0.7250454677111112</v>
+        <v>0.8736542070099997</v>
       </c>
       <c r="R21">
-        <v>6.525409209400001</v>
+        <v>7.862887863089998</v>
       </c>
       <c r="S21">
-        <v>0.005694600093820799</v>
+        <v>0.006247786211015878</v>
       </c>
       <c r="T21">
-        <v>0.005694600093820798</v>
+        <v>0.006247786211015878</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.02438866666666667</v>
+        <v>1.075685666666667</v>
       </c>
       <c r="H22">
-        <v>0.07316599999999999</v>
+        <v>3.227057</v>
       </c>
       <c r="I22">
-        <v>0.007418973675855766</v>
+        <v>0.2599256289150758</v>
       </c>
       <c r="J22">
-        <v>0.007418973675855765</v>
+        <v>0.2599256289150758</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.370432999999999</v>
+        <v>6.055317333333334</v>
       </c>
       <c r="N22">
-        <v>19.111299</v>
+        <v>18.165952</v>
       </c>
       <c r="O22">
-        <v>0.1644792697568605</v>
+        <v>0.1792089823259681</v>
       </c>
       <c r="P22">
-        <v>0.1644792697568605</v>
+        <v>0.1792089823259681</v>
       </c>
       <c r="Q22">
-        <v>0.1553663669593333</v>
+        <v>6.51361806258489</v>
       </c>
       <c r="R22">
-        <v>1.398297302634</v>
+        <v>58.622562563264</v>
       </c>
       <c r="S22">
-        <v>0.001220267372550128</v>
+        <v>0.04658100743830795</v>
       </c>
       <c r="T22">
-        <v>0.001220267372550128</v>
+        <v>0.04658100743830795</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.02438866666666667</v>
+        <v>1.075685666666667</v>
       </c>
       <c r="H23">
-        <v>0.07316599999999999</v>
+        <v>3.227057</v>
       </c>
       <c r="I23">
-        <v>0.007418973675855766</v>
+        <v>0.2599256289150758</v>
       </c>
       <c r="J23">
-        <v>0.007418973675855765</v>
+        <v>0.2599256289150758</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.248383</v>
       </c>
       <c r="O23">
-        <v>0.07098879110807187</v>
+        <v>0.08137114549597046</v>
       </c>
       <c r="P23">
-        <v>0.07098879110807187</v>
+        <v>0.08137114549597046</v>
       </c>
       <c r="Q23">
-        <v>0.067055687842</v>
+        <v>2.957555788759</v>
       </c>
       <c r="R23">
-        <v>0.603501190578</v>
+        <v>26.618002098831</v>
       </c>
       <c r="S23">
-        <v>0.000526663972511609</v>
+        <v>0.02115044616858026</v>
       </c>
       <c r="T23">
-        <v>0.000526663972511609</v>
+        <v>0.02115044616858026</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.02438866666666667</v>
+        <v>1.075685666666667</v>
       </c>
       <c r="H24">
-        <v>0.07316599999999999</v>
+        <v>3.227057</v>
       </c>
       <c r="I24">
-        <v>0.007418973675855766</v>
+        <v>0.2599256289150758</v>
       </c>
       <c r="J24">
-        <v>0.007418973675855765</v>
+        <v>0.2599256289150758</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.95628566666667</v>
+        <v>14.27079466666667</v>
       </c>
       <c r="N24">
-        <v>44.86885700000001</v>
+        <v>42.812384</v>
       </c>
       <c r="O24">
-        <v>0.3861588285644529</v>
+        <v>0.4223485654695421</v>
       </c>
       <c r="P24">
-        <v>0.386158828564453</v>
+        <v>0.4223485654695421</v>
       </c>
       <c r="Q24">
-        <v>0.3647638656957778</v>
+        <v>15.35088927487645</v>
       </c>
       <c r="R24">
-        <v>3.282874791262</v>
+        <v>138.158003473888</v>
       </c>
       <c r="S24">
-        <v>0.002864902183818976</v>
+        <v>0.1097792165010508</v>
       </c>
       <c r="T24">
-        <v>0.002864902183818976</v>
+        <v>0.1097792165010508</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.02438866666666667</v>
+        <v>1.075685666666667</v>
       </c>
       <c r="H25">
-        <v>0.07316599999999999</v>
+        <v>3.227057</v>
       </c>
       <c r="I25">
-        <v>0.007418973675855766</v>
+        <v>0.2599256289150758</v>
       </c>
       <c r="J25">
-        <v>0.007418973675855765</v>
+        <v>0.2599256289150758</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5852913333333333</v>
+        <v>0.6681003333333333</v>
       </c>
       <c r="N25">
-        <v>1.755874</v>
+        <v>2.004301</v>
       </c>
       <c r="O25">
-        <v>0.01511173433606254</v>
+        <v>0.01977263522907691</v>
       </c>
       <c r="P25">
-        <v>0.01511173433606254</v>
+        <v>0.01977263522907691</v>
       </c>
       <c r="Q25">
-        <v>0.01427447523155555</v>
+        <v>0.7186659524618889</v>
       </c>
       <c r="R25">
-        <v>0.128470277084</v>
+        <v>6.467993572157</v>
       </c>
       <c r="S25">
-        <v>0.0001121135592357737</v>
+        <v>0.005139414647226199</v>
       </c>
       <c r="T25">
-        <v>0.0001121135592357737</v>
+        <v>0.005139414647226198</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.02438866666666667</v>
+        <v>1.075685666666667</v>
       </c>
       <c r="H26">
-        <v>0.07316599999999999</v>
+        <v>3.227057</v>
       </c>
       <c r="I26">
-        <v>0.007418973675855766</v>
+        <v>0.2599256289150758</v>
       </c>
       <c r="J26">
-        <v>0.007418973675855765</v>
+        <v>0.2599256289150758</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.06944633333333</v>
+        <v>10.04546633333333</v>
       </c>
       <c r="N26">
-        <v>42.208339</v>
+        <v>30.136399</v>
       </c>
       <c r="O26">
-        <v>0.363261376234552</v>
+        <v>0.2972986714794425</v>
       </c>
       <c r="P26">
-        <v>0.363261376234552</v>
+        <v>0.2972986714794425</v>
       </c>
       <c r="Q26">
-        <v>0.3431350368082222</v>
+        <v>10.80576414974922</v>
       </c>
       <c r="R26">
-        <v>3.088215331274</v>
+        <v>97.251877347743</v>
       </c>
       <c r="S26">
-        <v>0.002695026587739279</v>
+        <v>0.07727554415991059</v>
       </c>
       <c r="T26">
-        <v>0.002695026587739278</v>
+        <v>0.07727554415991059</v>
       </c>
     </row>
   </sheetData>
